--- a/biology/Botanique/Eucalyptus_leucoxylon/Eucalyptus_leucoxylon.xlsx
+++ b/biology/Botanique/Eucalyptus_leucoxylon/Eucalyptus_leucoxylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus leucoxylon est un arbre de taille petite à moyenne à l'écorce rugueuse sur les 1 à 2 mètres les plus bas du tronc, au-dessus, l'écorce est lisse avec une surface blanche,jaune ou gris-bleu. Les feuilles adultes sont pétiolées, lancéolées, de 13 × 2,5 cm, concolores, ternes, vertes.
 Les fleurs blanches, roses ou rouges apparaissent en hiver.
@@ -515,9 +527,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 août 2011)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (24 août 2011) :
 Eucalyptus leucoxylon F.Muell. (1855)
 sous-espèce Eucalyptus leucoxylon subsp. bellarinensis Rule (1998)
 sous-espèce Eucalyptus leucoxylon subsp. connata Rule (1991)
